--- a/1.SQL Data Exploration/Dataset/PercentagePopulationInfected.xlsx
+++ b/1.SQL Data Exploration/Dataset/PercentagePopulationInfected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheddyranking\Documents\Collections\Data Analyst Portfolio Projects\DA Portfolio Projects\1.SQL Data Exploration\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7283D0-30A7-41B3-8556-06FDB35B872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F93FC1-ABFA-4170-8F27-EEAA3E5950E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1FA99FE8-3290-432F-9489-487E61A7D04A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>location</t>
   </si>
@@ -612,9 +612,6 @@
   </si>
   <si>
     <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>Bermuda</t>
@@ -1037,8 +1034,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -1052,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
         <v>213</v>
-      </c>
-      <c r="D1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,86 +3718,86 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B192">
         <v>65720</v>
       </c>
-      <c r="C192" t="s">
-        <v>193</v>
-      </c>
-      <c r="D192" t="s">
-        <v>193</v>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B193">
         <v>48865</v>
       </c>
-      <c r="C193" t="s">
-        <v>193</v>
-      </c>
-      <c r="D193" t="s">
-        <v>193</v>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B194">
         <v>67052</v>
       </c>
-      <c r="C194" t="s">
-        <v>193</v>
-      </c>
-      <c r="D194" t="s">
-        <v>193</v>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B195">
         <v>101073</v>
       </c>
-      <c r="C195" t="s">
-        <v>193</v>
-      </c>
-      <c r="D195" t="s">
-        <v>193</v>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B196">
         <v>105697</v>
       </c>
-      <c r="C196" t="s">
-        <v>193</v>
-      </c>
-      <c r="D196" t="s">
-        <v>193</v>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>207</v>
-      </c>
-      <c r="B197" t="s">
-        <v>193</v>
-      </c>
-      <c r="C197" t="s">
-        <v>193</v>
-      </c>
-      <c r="D197" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,193 +3807,193 @@
       <c r="B198">
         <v>85032</v>
       </c>
-      <c r="C198" t="s">
-        <v>193</v>
-      </c>
-      <c r="D198" t="s">
-        <v>193</v>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B199">
         <v>106766</v>
       </c>
-      <c r="C199" t="s">
-        <v>193</v>
-      </c>
-      <c r="D199" t="s">
-        <v>193</v>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B200">
         <v>164100</v>
       </c>
-      <c r="C200" t="s">
-        <v>193</v>
-      </c>
-      <c r="D200" t="s">
-        <v>193</v>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201">
         <v>4999</v>
       </c>
-      <c r="C201" t="s">
-        <v>193</v>
-      </c>
-      <c r="D201" t="s">
-        <v>193</v>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202">
         <v>3483</v>
       </c>
-      <c r="C202" t="s">
-        <v>193</v>
-      </c>
-      <c r="D202" t="s">
-        <v>193</v>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B203">
         <v>56772</v>
       </c>
-      <c r="C203" t="s">
-        <v>193</v>
-      </c>
-      <c r="D203" t="s">
-        <v>193</v>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B204">
         <v>15002</v>
       </c>
-      <c r="C204" t="s">
-        <v>193</v>
-      </c>
-      <c r="D204" t="s">
-        <v>193</v>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B205">
         <v>10834</v>
       </c>
-      <c r="C205" t="s">
-        <v>193</v>
-      </c>
-      <c r="D205" t="s">
-        <v>193</v>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B206">
         <v>38718</v>
       </c>
-      <c r="C206" t="s">
-        <v>193</v>
-      </c>
-      <c r="D206" t="s">
-        <v>193</v>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B207">
         <v>62273</v>
       </c>
-      <c r="C207" t="s">
-        <v>193</v>
-      </c>
-      <c r="D207" t="s">
-        <v>193</v>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B208">
         <v>649342</v>
       </c>
-      <c r="C208" t="s">
-        <v>193</v>
-      </c>
-      <c r="D208" t="s">
-        <v>193</v>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>6071</v>
       </c>
-      <c r="C209" t="s">
-        <v>193</v>
-      </c>
-      <c r="D209" t="s">
-        <v>193</v>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B210">
         <v>33691</v>
       </c>
-      <c r="C210" t="s">
-        <v>193</v>
-      </c>
-      <c r="D210" t="s">
-        <v>193</v>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211">
         <v>7496988</v>
       </c>
-      <c r="C211" t="s">
-        <v>193</v>
-      </c>
-      <c r="D211" t="s">
-        <v>193</v>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
